--- a/EJERCICIOS/EXCEL 2010/11 - FUNCIONES DE ESTADÍSTICA/e2010_fun_est_B04.xlsx
+++ b/EJERCICIOS/EXCEL 2010/11 - FUNCIONES DE ESTADÍSTICA/e2010_fun_est_B04.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Demografía de España 2016</t>
   </si>
@@ -127,13 +127,19 @@
   </si>
   <si>
     <t>Posición de Madrid en el conjunto de España:</t>
+  </si>
+  <si>
+    <t>Población de Madrid:</t>
+  </si>
+  <si>
+    <t>Población de Galicia:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,12 +153,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -490,15 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H33"/>
+  <dimension ref="B3:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -828,7 +832,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -838,7 +842,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="G30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -848,7 +852,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -858,7 +862,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -868,9 +872,19 @@
       </c>
       <c r="D33" s="1"/>
       <c r="G33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="G34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
